--- a/biology/Médecine/Céphalhématome/Céphalhématome.xlsx
+++ b/biology/Médecine/Céphalhématome/Céphalhématome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un céphalhématome ou céphalhématocèle est un épanchement de sang sous-périosté au niveau du crâne d'un nouveau-né, c'est-à-dire entre la table osseuse externe du crâne[Note 1] et le périoste par déchirure des veines communicantes du périoste. Il est classé P12.0[1] dans la classification internationale des maladies (CIM-10) comme lésion du cuir chevelu due à un traumatisme obstétrical.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un céphalhématome ou céphalhématocèle est un épanchement de sang sous-périosté au niveau du crâne d'un nouveau-né, c'est-à-dire entre la table osseuse externe du crâne[Note 1] et le périoste par déchirure des veines communicantes du périoste. Il est classé P12.0 dans la classification internationale des maladies (CIM-10) comme lésion du cuir chevelu due à un traumatisme obstétrical.
 Un céphalhématome est à distinguer de la bosse séro-sanguine qui est un saignement sous le cuir chevelu et au-dessus du périoste.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien κεφαλή / képhalè, tête et αιμα / héma qui signifie « sang », et du suffixe ομου / omou qui signifie « ensemble » donc « collection » servant à nommer les tumeurs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il survient dans 0,2 à 2,5 % de toutes les naissances[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il survient dans 0,2 à 2,5 % de toutes les naissances,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la lésion la plus corrélée à l'utilisation d'une manœuvre instrumentale, en particulier le vacuum extractor ou ventouse.
-En 1987, dans une étude sur 10 ans incluant 1 030 nouveau-nés présentant un céphalhématome (soit 2,5 % des naissances), des auteurs ont montré que les céphalhématomes sont augmentés en cas d'extraction instrumentale : + 5,1 % pour un accouchement par forceps et + 22,9 % pour un accouchement par ventouse. L’incidence est encore augmentée en cas d'application d'une électrode de monitoring sur le cuir chevelu. Par ailleurs la prévalence de l'hyperbilirubinémie était supérieure de 12,9 % chez les enfants présentant un céphalhématome[4].
-Une étude plus récente confirme cette corrélation[5].
+En 1987, dans une étude sur 10 ans incluant 1 030 nouveau-nés présentant un céphalhématome (soit 2,5 % des naissances), des auteurs ont montré que les céphalhématomes sont augmentés en cas d'extraction instrumentale : + 5,1 % pour un accouchement par forceps et + 22,9 % pour un accouchement par ventouse. L’incidence est encore augmentée en cas d'application d'une électrode de monitoring sur le cuir chevelu. Par ailleurs la prévalence de l'hyperbilirubinémie était supérieure de 12,9 % chez les enfants présentant un céphalhématome.
+Une étude plus récente confirme cette corrélation.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'examen clinique, un céphalhématome ne présente pas d'extension au-delà des sutures et ne déborde donc pas la ligne sagittale : le sang reste confiné par les sutures sous le périoste.
-À la palpation, la masse est ferme, bien circonscrite, « pouvant donner au doigt sur sa limite le signe de la "marche d'escalier" »[6].
-Un céphalhématome non compliqué ne présente pas de lésion intra-crânienne associée. Cependant dans une étude de 2 774 nouveau-nés observés pendant une période de 15 mois, 69 d'entre eux, soit 2,49 % présentaient un céphalhématome et sur 64 enfants radiographiés 16, soit 25 %, présentaient une fracture de l'os pariétal siégeant sous le céphalhématome[7]. Par ailleurs, un céphalhématome peut révéler un trouble de la coagulation[8].
+À la palpation, la masse est ferme, bien circonscrite, « pouvant donner au doigt sur sa limite le signe de la "marche d'escalier" ».
+Un céphalhématome non compliqué ne présente pas de lésion intra-crânienne associée. Cependant dans une étude de 2 774 nouveau-nés observés pendant une période de 15 mois, 69 d'entre eux, soit 2,49 % présentaient un céphalhématome et sur 64 enfants radiographiés 16, soit 25 %, présentaient une fracture de l'os pariétal siégeant sous le céphalhématome. Par ailleurs, un céphalhématome peut révéler un trouble de la coagulation.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9phalh%C3%A9matome</t>
+          <t>Céphalhématome</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,11 +660,13 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En règle générale, si le céphalhématome est isolé, l'évolution est favorable avec une résorption en quelques semaines.
-Parfois l'épanchement sanguin se calcifie[9] ce qui peut nécessiter une intervention chirurgicale ultérieure[10].
-Une ponction ou une effraction du cuir chevelu peut provoquer une infection avec risque d’ostéomyélite et de méningite[11].
+Parfois l'épanchement sanguin se calcifie ce qui peut nécessiter une intervention chirurgicale ultérieure.
+Une ponction ou une effraction du cuir chevelu peut provoquer une infection avec risque d’ostéomyélite et de méningite.
 </t>
         </is>
       </c>
